--- a/data/trans_orig/P11_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P11_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>71175</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57614</v>
+        <v>57251</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88828</v>
+        <v>90923</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06898702427496103</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05584205226119728</v>
+        <v>0.0554907751486152</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08609688777684542</v>
+        <v>0.08812688603075958</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>115</v>
@@ -765,19 +765,19 @@
         <v>119031</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>99049</v>
+        <v>98528</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>142245</v>
+        <v>138447</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09050990641462237</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07531577292630032</v>
+        <v>0.0749195665094468</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1081618834452022</v>
+        <v>0.1052736592817806</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>187</v>
@@ -786,19 +786,19 @@
         <v>190206</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>166435</v>
+        <v>165458</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>216773</v>
+        <v>220073</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08104795249817687</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07091903794050348</v>
+        <v>0.07050260850411594</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0923682287284667</v>
+        <v>0.09377419480771437</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>960548</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>942895</v>
+        <v>940800</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>974109</v>
+        <v>974472</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9310129757250389</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9139031122231546</v>
+        <v>0.9118731139692394</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9441579477388027</v>
+        <v>0.9445092248513847</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1176</v>
@@ -836,19 +836,19 @@
         <v>1196082</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1172868</v>
+        <v>1176666</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1216064</v>
+        <v>1216585</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9094900935853776</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8918381165547978</v>
+        <v>0.8947263407182193</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9246842270736997</v>
+        <v>0.9250804334905531</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2142</v>
@@ -857,19 +857,19 @@
         <v>2156629</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2130062</v>
+        <v>2126762</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2180400</v>
+        <v>2181377</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9189520475018231</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9076317712715333</v>
+        <v>0.9062258051922856</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9290809620594965</v>
+        <v>0.9294973914958838</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>29227</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20330</v>
+        <v>20286</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41466</v>
+        <v>40914</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01725951348425626</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01200539505201164</v>
+        <v>0.01197956281903142</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02448661885577224</v>
+        <v>0.02416038653500774</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -982,19 +982,19 @@
         <v>45210</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32683</v>
+        <v>34003</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61340</v>
+        <v>63072</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02847561843081217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02058541774313398</v>
+        <v>0.021416741649023</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0386349669737809</v>
+        <v>0.03972578667729906</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -1003,19 +1003,19 @@
         <v>74437</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57264</v>
+        <v>59168</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93864</v>
+        <v>92728</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02268683532066694</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01745276588114286</v>
+        <v>0.01803306462845978</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0286075832725677</v>
+        <v>0.0282614570851808</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1664186</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1651947</v>
+        <v>1652499</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1673083</v>
+        <v>1673127</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9827404865157437</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9755133811442277</v>
+        <v>0.9758396134649923</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9879946049479883</v>
+        <v>0.9880204371809684</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1511</v>
@@ -1053,19 +1053,19 @@
         <v>1542463</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1526333</v>
+        <v>1524601</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1554990</v>
+        <v>1553670</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9715243815691879</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9613650330262198</v>
+        <v>0.9602742133227009</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9794145822568662</v>
+        <v>0.978583258350977</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3129</v>
@@ -1074,19 +1074,19 @@
         <v>3206649</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3187222</v>
+        <v>3188358</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3223822</v>
+        <v>3221918</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.977313164679333</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.971392416727433</v>
+        <v>0.971738542914819</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9825472341188572</v>
+        <v>0.9819669353715401</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>14484</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7704</v>
+        <v>7812</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25066</v>
+        <v>25314</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02626692132076743</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0139712219508763</v>
+        <v>0.01416815275485209</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04545875344581124</v>
+        <v>0.04590862362596509</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1199,19 +1199,19 @@
         <v>11339</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5297</v>
+        <v>6143</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19186</v>
+        <v>20267</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02380006142244212</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01111779586343178</v>
+        <v>0.01289392095431888</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04027105688502256</v>
+        <v>0.04254096968613215</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1220,19 +1220,19 @@
         <v>25822</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16649</v>
+        <v>17139</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38847</v>
+        <v>39894</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02512349032060074</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01619873679544178</v>
+        <v>0.01667536609944541</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03779587739623122</v>
+        <v>0.03881392519929574</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>536924</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>526342</v>
+        <v>526094</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>543704</v>
+        <v>543596</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9737330786792325</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9545412465541896</v>
+        <v>0.954091376374035</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9860287780491239</v>
+        <v>0.9858318472451481</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>441</v>
@@ -1270,19 +1270,19 @@
         <v>465073</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>457226</v>
+        <v>456145</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>471115</v>
+        <v>470269</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9761999385775578</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.959728943114977</v>
+        <v>0.9574590303138683</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9888822041365682</v>
+        <v>0.9871060790456813</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>956</v>
@@ -1291,19 +1291,19 @@
         <v>1001998</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>988973</v>
+        <v>987926</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1011171</v>
+        <v>1010681</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9748765096793993</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9622041226037688</v>
+        <v>0.9611860748007039</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9838012632045582</v>
+        <v>0.9833246339005545</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>114887</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>96722</v>
+        <v>95271</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>139812</v>
+        <v>136638</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03506340139130117</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02951964134194695</v>
+        <v>0.02907678024919414</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04267059817343825</v>
+        <v>0.0417017611876492</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>169</v>
@@ -1416,19 +1416,19 @@
         <v>175579</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>149999</v>
+        <v>151497</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201562</v>
+        <v>202829</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05195888329877429</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04438887615279032</v>
+        <v>0.04483233428417258</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05964776198267376</v>
+        <v>0.06002293027141101</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>284</v>
@@ -1437,19 +1437,19 @@
         <v>290466</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>259187</v>
+        <v>259980</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>325241</v>
+        <v>327296</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04364143502619839</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03894189837299921</v>
+        <v>0.03906096170145536</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04886617916244719</v>
+        <v>0.04917504851820129</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3161656</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3136731</v>
+        <v>3139905</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3179821</v>
+        <v>3181272</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9649365986086988</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9573294018265623</v>
+        <v>0.958298238812351</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.970480358658053</v>
+        <v>0.970923219750806</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3128</v>
@@ -1487,19 +1487,19 @@
         <v>3203618</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3177635</v>
+        <v>3176368</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3229198</v>
+        <v>3227700</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9480411167012257</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9403522380173264</v>
+        <v>0.9399770697285891</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9556111238472099</v>
+        <v>0.9551676657158275</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6227</v>
@@ -1508,19 +1508,19 @@
         <v>6365275</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6330500</v>
+        <v>6328445</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6396554</v>
+        <v>6395761</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9563585649738016</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9511338208375529</v>
+        <v>0.950824951481799</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9610581016270013</v>
+        <v>0.9609390382985447</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>108231</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>87336</v>
+        <v>86950</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>130244</v>
+        <v>131480</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1115157364543401</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08998582205776141</v>
+        <v>0.08958894161112121</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1341960680014344</v>
+        <v>0.1354695288453825</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>232</v>
@@ -1872,19 +1872,19 @@
         <v>247362</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>219692</v>
+        <v>219751</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>275629</v>
+        <v>277582</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1850324238915355</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1643349116191262</v>
+        <v>0.1643790420026016</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2061770349506606</v>
+        <v>0.2076373625589413</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>329</v>
@@ -1893,19 +1893,19 @@
         <v>355593</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>321274</v>
+        <v>321853</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>391444</v>
+        <v>390743</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1541096169536934</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1392361224309527</v>
+        <v>0.1394872060546086</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1696469000412513</v>
+        <v>0.1693432455973171</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>862317</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>840304</v>
+        <v>839068</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>883212</v>
+        <v>883598</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8884842635456599</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8658039319985659</v>
+        <v>0.8645304711546176</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9100141779422388</v>
+        <v>0.9104110583888791</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1014</v>
@@ -1943,19 +1943,19 @@
         <v>1089496</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1061229</v>
+        <v>1059276</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1117166</v>
+        <v>1117107</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8149675761084645</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7938229650493394</v>
+        <v>0.7923626374410588</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8356650883808739</v>
+        <v>0.8356209579973984</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1821</v>
@@ -1964,19 +1964,19 @@
         <v>1951812</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1915961</v>
+        <v>1916662</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1986131</v>
+        <v>1985552</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8458903830463066</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8303530999587486</v>
+        <v>0.8306567544026829</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8607638775690473</v>
+        <v>0.8605127939453914</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>54450</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38506</v>
+        <v>40448</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71367</v>
+        <v>71913</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02787819696721832</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01971520809997345</v>
+        <v>0.02070942318495699</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0365399400115503</v>
+        <v>0.0368193276334232</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -2089,19 +2089,19 @@
         <v>89088</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70408</v>
+        <v>71095</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112488</v>
+        <v>110112</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05076614441230128</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04012119201619523</v>
+        <v>0.04051264884625279</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06410053624105309</v>
+        <v>0.06274649155004765</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>128</v>
@@ -2110,19 +2110,19 @@
         <v>143538</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>119108</v>
+        <v>121581</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>167681</v>
+        <v>170492</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03871031650572695</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03212182976759548</v>
+        <v>0.03278895773716229</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04522141674037522</v>
+        <v>0.04597943186043674</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1898675</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1881758</v>
+        <v>1881212</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1914619</v>
+        <v>1912677</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9721218030327817</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9634600599884497</v>
+        <v>0.9631806723665768</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9802847919000266</v>
+        <v>0.9792905768150429</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1554</v>
@@ -2160,19 +2160,19 @@
         <v>1665788</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1642388</v>
+        <v>1644764</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1684468</v>
+        <v>1683781</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9492338555876987</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9358994637589469</v>
+        <v>0.9372535084499523</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9598788079838046</v>
+        <v>0.9594873511537473</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3350</v>
@@ -2181,19 +2181,19 @@
         <v>3564463</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3540320</v>
+        <v>3537509</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3588893</v>
+        <v>3586420</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.961289683494273</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9547785832596248</v>
+        <v>0.9540205681395633</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9678781702324046</v>
+        <v>0.9672110422628377</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>10152</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4510</v>
+        <v>4321</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20602</v>
+        <v>20644</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02119243620722282</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009414696049636261</v>
+        <v>0.009019868446078706</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0430092154024838</v>
+        <v>0.04309569435953888</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -2306,19 +2306,19 @@
         <v>11913</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6048</v>
+        <v>5740</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21830</v>
+        <v>20813</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02597573151279789</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01318658947149025</v>
+        <v>0.0125158728969176</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04759892370891281</v>
+        <v>0.04538037524749633</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -2327,19 +2327,19 @@
         <v>22065</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13520</v>
+        <v>12856</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36181</v>
+        <v>33885</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02353208392405147</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01441909550142874</v>
+        <v>0.01371089072996133</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03858665957808838</v>
+        <v>0.03613868381820051</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>468866</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>458416</v>
+        <v>458374</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>474508</v>
+        <v>474697</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9788075637927772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9569907845975164</v>
+        <v>0.9569043056404611</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9905853039503638</v>
+        <v>0.9909801315539213</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>402</v>
@@ -2377,19 +2377,19 @@
         <v>446718</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>436801</v>
+        <v>437818</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>452583</v>
+        <v>452891</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9740242684872021</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9524010762910869</v>
+        <v>0.9546196247525041</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9868134105285097</v>
+        <v>0.9874841271030824</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>830</v>
@@ -2398,19 +2398,19 @@
         <v>915584</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>901468</v>
+        <v>903764</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>924129</v>
+        <v>924793</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9764679160759485</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9614133404219118</v>
+        <v>0.9638613161817995</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9855809044985714</v>
+        <v>0.9862891092700388</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>172832</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>148795</v>
+        <v>147787</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>203035</v>
+        <v>205481</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05079289484600803</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04372860110838084</v>
+        <v>0.04343228748124595</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05966884114541291</v>
+        <v>0.06038793612961164</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>320</v>
@@ -2523,19 +2523,19 @@
         <v>348364</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>313071</v>
+        <v>309836</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>383899</v>
+        <v>380077</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09812050483916387</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08818004040804726</v>
+        <v>0.08726873057356149</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1081293960120763</v>
+        <v>0.107053013824622</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>475</v>
@@ -2544,19 +2544,19 @@
         <v>521196</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>475736</v>
+        <v>479348</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>567237</v>
+        <v>569286</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07495929012538251</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06842112012463546</v>
+        <v>0.06894065958658324</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08158095395182456</v>
+        <v>0.08187567186843546</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3229858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3199655</v>
+        <v>3197209</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3253895</v>
+        <v>3254903</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.949207105153992</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.940331158854587</v>
+        <v>0.9396120638703884</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9562713988916189</v>
+        <v>0.9565677125187543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2970</v>
@@ -2594,19 +2594,19 @@
         <v>3202001</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3166466</v>
+        <v>3170288</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3237294</v>
+        <v>3240529</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9018794951608361</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8918706039879238</v>
+        <v>0.892946986175378</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9118199595919528</v>
+        <v>0.9127312694264385</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6001</v>
@@ -2615,19 +2615,19 @@
         <v>6431859</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6385818</v>
+        <v>6383769</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6477319</v>
+        <v>6473707</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9250407098746175</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9184190460481755</v>
+        <v>0.9181243281315645</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9315788798753645</v>
+        <v>0.9310593404134168</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>72171</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58178</v>
+        <v>58094</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88300</v>
+        <v>90071</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09617567676995137</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07752762548322482</v>
+        <v>0.07741584226317298</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1176689274009941</v>
+        <v>0.1200293027417789</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>162</v>
@@ -2979,19 +2979,19 @@
         <v>192508</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>164411</v>
+        <v>168832</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>219807</v>
+        <v>219556</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1958718210814741</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.167283313381722</v>
+        <v>0.1717819850203209</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.223647533676487</v>
+        <v>0.223392556588996</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>236</v>
@@ -3000,19 +3000,19 @@
         <v>264680</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>233784</v>
+        <v>236681</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>297384</v>
+        <v>298902</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1527080794596977</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1348826672927332</v>
+        <v>0.1365544351235858</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1715771644534124</v>
+        <v>0.1724527902707201</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>678240</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>662111</v>
+        <v>660340</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>692233</v>
+        <v>692317</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9038243232300487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8823310725990059</v>
+        <v>0.879970697258221</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.922472374516775</v>
+        <v>0.9225841577368264</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>719</v>
@@ -3050,19 +3050,19 @@
         <v>790320</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>763021</v>
+        <v>763272</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>818417</v>
+        <v>813996</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8041281789185259</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7763524663235135</v>
+        <v>0.7766074434110042</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8327166866182781</v>
+        <v>0.8282180149796794</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1403</v>
@@ -3071,19 +3071,19 @@
         <v>1468559</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1435855</v>
+        <v>1434337</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1499455</v>
+        <v>1496558</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8472919205403022</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8284228355465875</v>
+        <v>0.8275472097292799</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8651173327072668</v>
+        <v>0.8634455648764143</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>58431</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45127</v>
+        <v>43733</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75233</v>
+        <v>75944</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02834754202465293</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02189318808208858</v>
+        <v>0.02121669322296402</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03649861224717325</v>
+        <v>0.03684362657542945</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -3196,19 +3196,19 @@
         <v>106804</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>89489</v>
+        <v>88966</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127973</v>
+        <v>130229</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05395706014877473</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04520946321115789</v>
+        <v>0.04494552316257285</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06465143953427858</v>
+        <v>0.06579133904209727</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>151</v>
@@ -3217,19 +3217,19 @@
         <v>165236</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>140061</v>
+        <v>140958</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>194262</v>
+        <v>194845</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0408930057024714</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03466279849212119</v>
+        <v>0.03488462299863317</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04807667026126444</v>
+        <v>0.04822075511391774</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2002821</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1986019</v>
+        <v>1985308</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2016125</v>
+        <v>2017519</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9716524579753471</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9635013877528268</v>
+        <v>0.9631563734245709</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9781068119179115</v>
+        <v>0.9787833067770361</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1801</v>
@@ -3267,19 +3267,19 @@
         <v>1872625</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1851456</v>
+        <v>1849200</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1889940</v>
+        <v>1890463</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9460429398512252</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9353485604657215</v>
+        <v>0.9342086609579029</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9547905367888422</v>
+        <v>0.9550544768374274</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3685</v>
@@ -3288,19 +3288,19 @@
         <v>3875445</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3846419</v>
+        <v>3845836</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3900620</v>
+        <v>3899723</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9591069942975287</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9519233297387357</v>
+        <v>0.9517792448860825</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9653372015078788</v>
+        <v>0.965115377001367</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>8889</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3739</v>
+        <v>4638</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16102</v>
+        <v>17378</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01642410051221451</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006908802919488814</v>
+        <v>0.008569654517743662</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02975094969365346</v>
+        <v>0.03210831976876143</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -3413,19 +3413,19 @@
         <v>22433</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14179</v>
+        <v>13863</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34676</v>
+        <v>34537</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04098958721053813</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0259080170365926</v>
+        <v>0.02533092691622716</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06335907213406522</v>
+        <v>0.06310616586323056</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -3434,19 +3434,19 @@
         <v>31322</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21866</v>
+        <v>20899</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45340</v>
+        <v>43457</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02877518513880355</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02008787024010205</v>
+        <v>0.01919942214350696</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04165234547804467</v>
+        <v>0.03992249864584216</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>532345</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>525132</v>
+        <v>523856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>537495</v>
+        <v>536596</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9835758994877855</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9702490503063467</v>
+        <v>0.9678916802312386</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9930911970805112</v>
+        <v>0.9914303454822564</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>504</v>
@@ -3484,19 +3484,19 @@
         <v>524857</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>512614</v>
+        <v>512753</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>533111</v>
+        <v>533427</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9590104127894619</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9366409278659346</v>
+        <v>0.9368938341367693</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9740919829634074</v>
+        <v>0.9746690730837728</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>992</v>
@@ -3505,19 +3505,19 @@
         <v>1057202</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1043184</v>
+        <v>1045067</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1066658</v>
+        <v>1067625</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9712248148611965</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9583476545219549</v>
+        <v>0.9600775013541578</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9799121297598976</v>
+        <v>0.9808005778564929</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>139492</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>119156</v>
+        <v>117943</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>164836</v>
+        <v>164842</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04160342240575966</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03553827190601824</v>
+        <v>0.03517657496969957</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04916237204696035</v>
+        <v>0.04916414014110695</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>280</v>
@@ -3630,19 +3630,19 @@
         <v>321746</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>288193</v>
+        <v>286791</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>357744</v>
+        <v>359864</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0916772600698116</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08211674466796093</v>
+        <v>0.08171726902558459</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1019345809011856</v>
+        <v>0.1025385603003462</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>416</v>
@@ -3651,19 +3651,19 @@
         <v>461238</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>419677</v>
+        <v>419056</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>503971</v>
+        <v>503625</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06721186302256954</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06115568481747766</v>
+        <v>0.06106519497725693</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07343903865237304</v>
+        <v>0.07338861585192928</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3213405</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3188061</v>
+        <v>3188055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3233741</v>
+        <v>3234954</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9583965775942404</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9508376279530396</v>
+        <v>0.9508358598588932</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9644617280939818</v>
+        <v>0.9648234250303004</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3024</v>
@@ -3701,19 +3701,19 @@
         <v>3187801</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3151803</v>
+        <v>3149683</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3221354</v>
+        <v>3222756</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9083227399301884</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8980654190988143</v>
+        <v>0.8974614396996539</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9178832553320391</v>
+        <v>0.9182827309744154</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6080</v>
@@ -3722,19 +3722,19 @@
         <v>6401206</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6358473</v>
+        <v>6358819</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6442767</v>
+        <v>6443388</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9327881369774305</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9265609613476269</v>
+        <v>0.9266113841480706</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9388443151825222</v>
+        <v>0.9389348050227431</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>106249</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90490</v>
+        <v>90058</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>125712</v>
+        <v>124879</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1836542093791658</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1564147136845014</v>
+        <v>0.1556665884167623</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2172959519323995</v>
+        <v>0.2158568035559615</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>432</v>
@@ -4086,19 +4086,19 @@
         <v>232499</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>213000</v>
+        <v>213391</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>252914</v>
+        <v>250991</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2836621338036046</v>
+        <v>0.2836621338036047</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.259871626705926</v>
+        <v>0.2603483689328971</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3085696407084746</v>
+        <v>0.3062223801215705</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>576</v>
@@ -4107,19 +4107,19 @@
         <v>338749</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>312727</v>
+        <v>314158</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>364841</v>
+        <v>368683</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2422810823230173</v>
+        <v>0.2422810823230172</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2236692683533696</v>
+        <v>0.224693129153481</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2609427450457565</v>
+        <v>0.2636904118861726</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>472280</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>452817</v>
+        <v>453650</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>488039</v>
+        <v>488471</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8163457906208342</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7827040480676001</v>
+        <v>0.7841431964440387</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8435852863154986</v>
+        <v>0.8443334115832377</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>991</v>
@@ -4157,19 +4157,19 @@
         <v>587136</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>566721</v>
+        <v>568644</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>606635</v>
+        <v>606244</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7163378661963954</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6914303592915254</v>
+        <v>0.6937776198784291</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.740128373294074</v>
+        <v>0.7396516310671025</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1538</v>
@@ -4178,19 +4178,19 @@
         <v>1059416</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1033324</v>
+        <v>1029482</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1085438</v>
+        <v>1084007</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7577189176769829</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7390572549542439</v>
+        <v>0.7363095881138274</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7763307316466304</v>
+        <v>0.7753068708465191</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>142014</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>121872</v>
+        <v>120488</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>169636</v>
+        <v>166724</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06372560240833694</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05468740425524882</v>
+        <v>0.05406610818366341</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07612047496192814</v>
+        <v>0.07481353232704821</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>291</v>
@@ -4303,19 +4303,19 @@
         <v>187277</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>168057</v>
+        <v>166243</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>213711</v>
+        <v>210265</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08626589342771057</v>
+        <v>0.08626589342771059</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07741245729393985</v>
+        <v>0.07657720261526636</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09844235552256243</v>
+        <v>0.09685515824286756</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>441</v>
@@ -4324,19 +4324,19 @@
         <v>329291</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>296186</v>
+        <v>297175</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>364180</v>
+        <v>360879</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0748482027178899</v>
+        <v>0.07484820271788992</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06732343087136841</v>
+        <v>0.06754826232348522</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08277858049643969</v>
+        <v>0.08202818786409119</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2086509</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2058887</v>
+        <v>2061799</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2106651</v>
+        <v>2108035</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9362743975916631</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9238795250380717</v>
+        <v>0.9251864676729518</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9453125957447511</v>
+        <v>0.9459338918163366</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2629</v>
@@ -4374,19 +4374,19 @@
         <v>1983649</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1957215</v>
+        <v>1960661</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2002869</v>
+        <v>2004683</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9137341065722895</v>
+        <v>0.9137341065722894</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9015576444774371</v>
+        <v>0.9031448417571326</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.92258754270606</v>
+        <v>0.9234227973847339</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4469</v>
@@ -4395,19 +4395,19 @@
         <v>4070158</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4035269</v>
+        <v>4038570</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4103263</v>
+        <v>4102274</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9251517972821101</v>
+        <v>0.9251517972821102</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9172214195035603</v>
+        <v>0.9179718121359087</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9326765691286315</v>
+        <v>0.9324517376765147</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>30369</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21258</v>
+        <v>21078</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43779</v>
+        <v>44675</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04277294406743432</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02994075853411938</v>
+        <v>0.02968749821394014</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06166028090960475</v>
+        <v>0.06292230531435335</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -4520,19 +4520,19 @@
         <v>44409</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33955</v>
+        <v>34703</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57106</v>
+        <v>58098</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06056187520273993</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0463049466360596</v>
+        <v>0.04732586912539487</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07787717190107746</v>
+        <v>0.07922885316075154</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>99</v>
@@ -4541,19 +4541,19 @@
         <v>74778</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59538</v>
+        <v>59116</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91928</v>
+        <v>91684</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05181087193740125</v>
+        <v>0.05181087193740126</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04125158624491328</v>
+        <v>0.04095873610982266</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06369310207385365</v>
+        <v>0.06352414067045345</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>679639</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>666229</v>
+        <v>665333</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>688750</v>
+        <v>688930</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9572270559325659</v>
+        <v>0.9572270559325655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9383397190903954</v>
+        <v>0.9370776946856467</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9700592414658806</v>
+        <v>0.9703125017860598</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>936</v>
@@ -4591,19 +4591,19 @@
         <v>688879</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>676182</v>
+        <v>675190</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>699333</v>
+        <v>698585</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9394381247972602</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.922122828098923</v>
+        <v>0.9207711468392499</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9536950533639408</v>
+        <v>0.9526741308746054</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1583</v>
@@ -4612,19 +4612,19 @@
         <v>1368518</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1351368</v>
+        <v>1351612</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1383758</v>
+        <v>1384180</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9481891280625987</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9363068979261465</v>
+        <v>0.9364758593295472</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9587484137550867</v>
+        <v>0.9590412638901777</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>278633</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>249132</v>
+        <v>248680</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>308907</v>
+        <v>311784</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0792231071180919</v>
+        <v>0.07922310711809191</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07083518938840423</v>
+        <v>0.07070666554322474</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08783106037346086</v>
+        <v>0.08864892936610397</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>789</v>
@@ -4737,19 +4737,19 @@
         <v>464186</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>435391</v>
+        <v>434369</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>498091</v>
+        <v>497710</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1246521042239529</v>
+        <v>0.1246521042239528</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1169195172534151</v>
+        <v>0.1166450219810396</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1337569570633052</v>
+        <v>0.133654563871874</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1116</v>
@@ -4758,19 +4758,19 @@
         <v>742818</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>698099</v>
+        <v>697581</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>792116</v>
+        <v>790332</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1025862965339945</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09641033410872424</v>
+        <v>0.09633892054364991</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1093945206326365</v>
+        <v>0.1091481878861724</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3238428</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3208154</v>
+        <v>3205277</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3267929</v>
+        <v>3268381</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9207768928819079</v>
+        <v>0.9207768928819082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9121689396265391</v>
+        <v>0.9113510706338958</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9291648106115958</v>
+        <v>0.9292933344567752</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4556</v>
@@ -4808,19 +4808,19 @@
         <v>3259664</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3225759</v>
+        <v>3226140</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3288459</v>
+        <v>3289481</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8753478957760471</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8662430429366947</v>
+        <v>0.8663454361281262</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.883080482746585</v>
+        <v>0.8833549780189606</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7590</v>
@@ -4829,19 +4829,19 @@
         <v>6498092</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6448794</v>
+        <v>6450578</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6542811</v>
+        <v>6543329</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8974137034660055</v>
+        <v>0.8974137034660054</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8906054793673633</v>
+        <v>0.8908518121138277</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9035896658912757</v>
+        <v>0.9036610794563502</v>
       </c>
     </row>
     <row r="15">
